--- a/docs/examples/data/example_10/df_Guo_2016.xlsx
+++ b/docs/examples/data/example_10/df_Guo_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\pyet\examples\data\example_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\pyet\docs\examples\data\example_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B8376F-CBF5-45FF-97B4-E436256F91F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFFF518-A506-4B91-945D-9DC1854F77E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="795" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,17 +426,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M26" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1045,7 +1045,7 @@
         <v>7.76779416290697</v>
       </c>
       <c r="U9">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="V9">
         <v>3.8941172827497899</v>
@@ -3467,7 +3467,7 @@
         <v>2.8733236582038901</v>
       </c>
       <c r="U44" s="4">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V44">
         <v>1.89395817894361</v>
